--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_4_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_4_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-650506.0595995844</v>
+        <v>-652486.9761800101</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.066553578</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14058254.23074971</v>
+        <v>14066703.43566346</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>231.4408706859777</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>37.29081714624785</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>29.22883044751052</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>348.8146578082627</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>258.4202483134164</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>45.89753453533234</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>218.7977368246738</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>259.0662167945439</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>158.2106411511143</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.9154389188783</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>213.6743229269902</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784676</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>36.86829856162177</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>73.20819353839255</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675409</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>24.297184971268</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>135.2182982137589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1938,10 +1938,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>57.85017494299876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>157.2425576766694</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2175,10 +2175,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="G22" t="n">
-        <v>115.5269768002151</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2412,10 +2412,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836033</v>
+        <v>115.5269768002169</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750006</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002173</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>198.7503859381837</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533799</v>
+        <v>113.0862448584914</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801174</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437385</v>
       </c>
       <c r="G31" t="n">
-        <v>98.73491851629366</v>
+        <v>111.2903118348202</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389787</v>
+        <v>93.71057173897873</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571458</v>
+        <v>55.21598883571459</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523538</v>
+        <v>54.7610957752354</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550458</v>
+        <v>142.7175533550459</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298318</v>
+        <v>166.3443044298319</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700199</v>
@@ -3013,7 +3013,7 @@
         <v>231.3197417080336</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604797</v>
+        <v>170.5063987604798</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235374</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329102</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3834,10 +3834,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>49.3772837912455</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145474</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1568.353113282533</v>
+        <v>1216.807289433107</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.353113282533</v>
+        <v>847.844772492695</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2328.418711607735</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1954.952953346655</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1954.952953346655</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1899.21241430279</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C5" t="n">
-        <v>1530.249897362378</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>1530.249897362378</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>1144.461644764134</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>733.475739974526</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278601</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="Y5" t="n">
-        <v>1899.21241430279</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>398.3338608103785</v>
+        <v>507.1211692320162</v>
       </c>
       <c r="C7" t="n">
-        <v>398.3338608103785</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D7" t="n">
-        <v>248.2172213980428</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E7" t="n">
-        <v>100.3041278156497</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406182</v>
+        <v>507.1211692320162</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.9823256406182</v>
+        <v>507.1211692320162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1683.829970582156</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C8" t="n">
-        <v>1683.829970582156</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036444</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2057.295728843236</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X8" t="n">
-        <v>1683.829970582156</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y8" t="n">
-        <v>1683.829970582156</v>
+        <v>1579.049931616194</v>
       </c>
     </row>
     <row r="9">
@@ -4896,7 +4896,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.3478788207</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036444</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.6560661520982</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>257.3478788207</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>257.3478788207</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>257.3478788207</v>
+        <v>512.2963347852319</v>
       </c>
       <c r="W10" t="n">
-        <v>257.3478788207</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X10" t="n">
-        <v>257.3478788207</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>257.3478788207</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,34 +5024,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>896.555216499685</v>
+        <v>599.9410747082369</v>
       </c>
       <c r="C13" t="n">
-        <v>727.6190335717781</v>
+        <v>599.9410747082369</v>
       </c>
       <c r="D13" t="n">
-        <v>577.5023941594424</v>
+        <v>599.9410747082369</v>
       </c>
       <c r="E13" t="n">
-        <v>429.5893005770492</v>
+        <v>562.7003690904371</v>
       </c>
       <c r="F13" t="n">
-        <v>282.6993530791389</v>
+        <v>415.8104215925267</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123474</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,13 +5215,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
         <v>1298.996260473455</v>
@@ -5236,13 +5236,13 @@
         <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>1298.996260473455</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X13" t="n">
-        <v>1298.996260473455</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y13" t="n">
-        <v>1078.203681329925</v>
+        <v>781.5895395384766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,43 +5264,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823776</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514065</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515094</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207823</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>154.3878371814147</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>303.457521383474</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>550.2226492899374</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>857.5427825698982</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834048</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136707</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5391,7 +5391,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.5250474102529</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="C16" t="n">
-        <v>394.5250474102529</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="D16" t="n">
-        <v>394.525047410253</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="E16" t="n">
-        <v>394.525047410253</v>
+        <v>121.7597025423747</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947118</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473452</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262958</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.210845262958</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>820.526357057071</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>531.1091870201103</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X16" t="n">
-        <v>531.1091870201103</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y16" t="n">
-        <v>394.5250474102529</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="17">
@@ -5492,52 +5492,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155891</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515094</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619124</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899121</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207823</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5568,52 +5568,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110136</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555257</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619892</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.76077344195</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.623401105982</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324678</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060425</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5628,7 +5628,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
         <v>1571.258395043133</v>
@@ -5647,73 +5647,73 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471179</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473452</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262958</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765161</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>786.0822064765161</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W19" t="n">
-        <v>727.6476863320731</v>
+        <v>665.6859735286129</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>437.6964226305955</v>
       </c>
       <c r="Y19" t="n">
         <v>278.8655562905255</v>
@@ -5729,43 +5729,43 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514153</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795212</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515102</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5777,22 +5777,22 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126479</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571601</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636235</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643584</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307616</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526313</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963125</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278839</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5865,7 +5865,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.9110074200991</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C22" t="n">
-        <v>213.9110074200991</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D22" t="n">
-        <v>213.9110074200991</v>
+        <v>216.9038434870657</v>
       </c>
       <c r="E22" t="n">
-        <v>213.9110074200991</v>
+        <v>216.9038434870657</v>
       </c>
       <c r="F22" t="n">
-        <v>213.9110074200991</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028587</v>
@@ -5908,52 +5908,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947118</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347406</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609639</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>731.317728355077</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181164</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074200991</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074200991</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5975,64 +5975,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155891</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822465</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515094</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619124</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899121</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207823</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256432</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277025</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341659</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.46647865386</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.87805691801</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136707</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6102,7 +6102,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688066</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799355</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471178</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473452</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
@@ -6212,64 +6212,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6309,16 +6309,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6391,13 +6391,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1298.158304963777</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,40 +6452,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.532429954224</v>
+        <v>451.1914993430004</v>
       </c>
       <c r="C31" t="n">
-        <v>439.532429954224</v>
+        <v>451.1914993430004</v>
       </c>
       <c r="D31" t="n">
-        <v>439.532429954224</v>
+        <v>451.1914993430004</v>
       </c>
       <c r="E31" t="n">
-        <v>347.380201653202</v>
+        <v>451.1914993430004</v>
       </c>
       <c r="F31" t="n">
-        <v>347.380201653202</v>
+        <v>360.0624171264611</v>
       </c>
       <c r="G31" t="n">
         <v>247.6479607276528</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569673</v>
+        <v>152.9908175569672</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864676</v>
+        <v>164.2510079864675</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933508</v>
+        <v>369.0876362933509</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667518</v>
+        <v>671.450905366752</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962065</v>
@@ -6643,7 +6643,7 @@
         <v>1936.126063056077</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899274</v>
+        <v>1880.811824899273</v>
       </c>
       <c r="S31" t="n">
         <v>1736.652680096197</v>
@@ -6655,16 +6655,16 @@
         <v>1335.260356662003</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737488</v>
+        <v>1136.336733737487</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818978</v>
+        <v>902.6804289818979</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652516</v>
+        <v>730.4517433652517</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030926</v>
+        <v>565.4200295030927</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6923,64 +6923,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>485.5200852635878</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7078,28 +7078,28 @@
         <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
         <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7354,28 +7354,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,52 +7464,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571605</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115525</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7524,7 +7524,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506721</v>
@@ -7555,46 +7555,46 @@
         <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670534</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208171</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>453.5018714396643</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>1108.225203574964</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1559.259416823373</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2092.791321495297</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>2639.57013855408</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3483.798167244623</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4197.153254691569</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4655.631457200557</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208807</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587483</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.1712248333965</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>668.6846748535629</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>566.0176683893005</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549808</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051438</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>245.860689527936</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938671</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>188.845109159628</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>439.337677360911</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>802.4028610618138</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.065291913769</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.979053872041</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.814038044861</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730927</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135848</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.661780841449</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133949</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949852</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155629</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8544,10 +8544,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>15.83804904623381</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445237</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298972</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927815194</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445237</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,13 +9401,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.145412571173</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208118</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987299063</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229632</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445237</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714841</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>199.7396287231157</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>253.7371603504743</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298398</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,7 +11142,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.409182577677</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445224</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,16 +11300,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476834</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11370,19 +11370,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>109.5656640849474</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>93.28537492498504</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>121.1238630516632</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>83.36635513833589</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>228.6728233935922</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>61.34209567542541</v>
       </c>
     </row>
     <row r="20">
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>26.93116351641936</v>
       </c>
       <c r="G22" t="n">
-        <v>50.96659166316272</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338638</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338864</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338592</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>87.48696646039369</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>11.54247869488854</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700704</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965493</v>
+        <v>93.41221638965496</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801177</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437382</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>12.55539331852651</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1224921.073261426</v>
+        <v>1239552.362411545</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="D2" t="n">
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="F2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="G2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="H2" t="n">
         <v>215065.9828557399</v>
       </c>
       <c r="I2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="J2" t="n">
         <v>215065.9828557399</v>
@@ -26344,16 +26344,16 @@
         <v>225786.4867126782</v>
       </c>
       <c r="M2" t="n">
+        <v>225786.4867126782</v>
+      </c>
+      <c r="N2" t="n">
+        <v>225786.4867126782</v>
+      </c>
+      <c r="O2" t="n">
+        <v>225786.4867126782</v>
+      </c>
+      <c r="P2" t="n">
         <v>225786.4867126781</v>
-      </c>
-      <c r="N2" t="n">
-        <v>225786.4867126781</v>
-      </c>
-      <c r="O2" t="n">
-        <v>225786.4867126781</v>
-      </c>
-      <c r="P2" t="n">
-        <v>225786.486712678</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192594</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
+        <v>44162.60530284591</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10342.90680086662</v>
+      </c>
+      <c r="M3" t="n">
+        <v>134801.0152338371</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>44162.60530284594</v>
-      </c>
-      <c r="L3" t="n">
-        <v>10342.90680086659</v>
-      </c>
-      <c r="M3" t="n">
-        <v>134801.0152338372</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>199883.8198755747</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230235</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230245</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230242</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230241</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649899</v>
+        <v>47468.168066499</v>
       </c>
       <c r="L4" t="n">
         <v>51722.33279362282</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362279</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="N4" t="n">
+        <v>51722.33279362282</v>
+      </c>
+      <c r="O4" t="n">
         <v>51722.33279362281</v>
       </c>
-      <c r="O4" t="n">
-        <v>51722.33279362285</v>
-      </c>
       <c r="P4" t="n">
-        <v>30134.53761950705</v>
+        <v>51722.3327936228</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022284</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002538</v>
-      </c>
-      <c r="P5" t="n">
-        <v>101591.2743431396</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-621531.2478871021</v>
       </c>
       <c r="C6" t="n">
-        <v>-31563.36867255764</v>
+        <v>-31563.36867255773</v>
       </c>
       <c r="D6" t="n">
-        <v>-31563.36867255773</v>
+        <v>-31563.36867255767</v>
       </c>
       <c r="E6" t="n">
-        <v>-431384.9251221755</v>
+        <v>-431482.3842481474</v>
       </c>
       <c r="F6" t="n">
-        <v>93775.11135472203</v>
+        <v>93677.65222874878</v>
       </c>
       <c r="G6" t="n">
-        <v>93775.11135472075</v>
+        <v>93677.65222874878</v>
       </c>
       <c r="H6" t="n">
-        <v>93775.1113547209</v>
+        <v>93677.65222874876</v>
       </c>
       <c r="I6" t="n">
-        <v>93775.11135472078</v>
+        <v>93677.65222874875</v>
       </c>
       <c r="J6" t="n">
-        <v>-82648.10783787297</v>
+        <v>-82745.56696384418</v>
       </c>
       <c r="K6" t="n">
-        <v>35493.19364033082</v>
+        <v>35474.69990239647</v>
       </c>
       <c r="L6" t="n">
-        <v>66006.14129816336</v>
+        <v>66006.1412981633</v>
       </c>
       <c r="M6" t="n">
-        <v>-58451.96713480724</v>
+        <v>-58451.96713480717</v>
       </c>
       <c r="N6" t="n">
-        <v>76349.04809902994</v>
+        <v>76349.04809902995</v>
       </c>
       <c r="O6" t="n">
-        <v>76349.04809903016</v>
+        <v>76349.04809902995</v>
       </c>
       <c r="P6" t="n">
-        <v>-105823.1451255433</v>
+        <v>32186.442796184</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26744,19 +26744,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054540988</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054540988</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054540988</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054540988</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054540997</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>55.20325662855739</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12.92863350108328</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>55.20325662855742</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12.92863350108323</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>34.04650311750934</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26996,10 +26996,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-3.336646501109881e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.3942951391986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
     </row>
     <row r="3">
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>123.2421709347052</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>311.9501515711652</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>116.1922175754207</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>62.69861478456104</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>64.96951221253227</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>69.33201015671847</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5235134875989</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>6.911918564363333</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>95.61682482613901</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>228.0272975049393</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2301000311405801</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>38.46332039683776</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.463149601477198e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-2.56967448873499e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855742</v>
+        <v>55.20325662855739</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304431</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565509</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724838</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813454</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855519</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361477</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263747</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337658</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304431</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565509</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724838</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813454</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855519</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361477</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263747</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337658</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304431</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565509</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724838</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813454</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855519</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361477</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263747</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337658</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304431</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565509</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724838</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813454</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855519</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361477</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263747</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337658</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041485</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304437</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565515</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540882</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104644</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.4953007812706</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358982</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724843</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855523</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361485</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298627</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337665</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336899</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892241</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351809</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109115</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502042</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349773</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>57.74822800114018</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879387</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504655</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415657</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178369</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315241</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507373</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556535</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299103</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118005</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187453</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109115</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502042</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970350501</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330583</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504655</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714612</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556535</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299103</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118005</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187453</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303405</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109115</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502042</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349773</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504655</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523359</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686845</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556535</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299103</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118005</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187453</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109115</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502042</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970350593</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490637</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879387</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734287</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415657</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315241</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507373</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556535</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299103</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118005</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187453</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502048</v>
@@ -36677,7 +36677,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412294</v>
+        <v>67.71102679412292</v>
       </c>
       <c r="K31" t="n">
-        <v>206.905685158468</v>
+        <v>206.9056851584679</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084859</v>
       </c>
       <c r="M31" t="n">
-        <v>329.51309780753</v>
+        <v>329.5130978075299</v>
       </c>
       <c r="N31" t="n">
         <v>328.480134434161</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491603</v>
+        <v>291.4406081491602</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403582</v>
+        <v>233.5868572403581</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043217</v>
+        <v>94.42895660043214</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>350.3150673110549</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>460.8305752819989</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303327</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109069</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951468</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>59.8253897034995</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953154</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.666887533701</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315245</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595511</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502434</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015153</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359025</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
